--- a/tests/testesmanuais/Template_Dados_Xalingo.xlsx
+++ b/tests/testesmanuais/Template_Dados_Xalingo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7470" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7470" tabRatio="749" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constantes" sheetId="36" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="570">
   <si>
     <t>Ano</t>
   </si>
@@ -1811,6 +1811,15 @@
   </si>
   <si>
     <t>Iuri e Julia Schenkel</t>
+  </si>
+  <si>
+    <t>Tipo de Observar</t>
+  </si>
+  <si>
+    <t>Último Ano</t>
+  </si>
+  <si>
+    <t>HorizonteAvaliacao</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2124,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2254,10 +2263,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2759,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83D282-F75C-4952-B6E5-FA904FFBD51F}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2783,8 @@
     <col min="1" max="1" width="33.42578125" style="76" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="76" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="76" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="76"/>
+    <col min="4" max="4" width="16.140625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,7 +2797,9 @@
       <c r="C1" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="6" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -2791,6 +2809,9 @@
         <f>IF(VLOOKUP(A2,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -2800,6 +2821,9 @@
         <f>IF(VLOOKUP(A3,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
@@ -2809,6 +2833,9 @@
         <f>IF(VLOOKUP(A4,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
@@ -2818,6 +2845,9 @@
         <f>IF(VLOOKUP(A5,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
@@ -2827,6 +2857,9 @@
         <f>IF(VLOOKUP(A6,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D6" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
@@ -2836,6 +2869,9 @@
         <f>IF(VLOOKUP(A7,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D7" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
@@ -2845,6 +2881,9 @@
         <f>IF(VLOOKUP(A8,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D8" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
@@ -2854,6 +2893,9 @@
         <f>IF(VLOOKUP(A9,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
@@ -2863,6 +2905,9 @@
         <f>IF(VLOOKUP(A10,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D10" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
@@ -2872,6 +2917,9 @@
         <f>IF(VLOOKUP(A11,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D11" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
@@ -2881,6 +2929,9 @@
         <f>IF(VLOOKUP(A12,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D12" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
@@ -2890,6 +2941,9 @@
         <f>IF(VLOOKUP(A13,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
+      <c r="D13" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
@@ -2899,6 +2953,9 @@
         <f>IF(VLOOKUP(A14,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
+      <c r="D14" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
@@ -2908,6 +2965,9 @@
         <f>IF(VLOOKUP(A15,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
+      <c r="D15" s="11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
@@ -2917,8 +2977,11 @@
         <f>IF(VLOOKUP(A16,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>69</v>
       </c>
@@ -2926,8 +2989,11 @@
         <f>IF(VLOOKUP(A17,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>86</v>
       </c>
@@ -2935,8 +3001,11 @@
         <f>IF(VLOOKUP(A18,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
         <v>103</v>
       </c>
@@ -2944,8 +3013,11 @@
         <f>IF(VLOOKUP(A19,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>110</v>
       </c>
@@ -2953,8 +3025,11 @@
         <f>IF(VLOOKUP(A20,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
         <v>115</v>
       </c>
@@ -2962,8 +3037,11 @@
         <f>IF(VLOOKUP(A21,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
         <v>137</v>
       </c>
@@ -2971,8 +3049,11 @@
         <f>IF(VLOOKUP(A22,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
         <v>138</v>
       </c>
@@ -2980,8 +3061,11 @@
         <f>IF(VLOOKUP(A23,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
         <v>151</v>
       </c>
@@ -2989,8 +3073,11 @@
         <f>IF(VLOOKUP(A24,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
         <v>152</v>
       </c>
@@ -2998,8 +3085,11 @@
         <f>IF(VLOOKUP(A25,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
         <v>168</v>
       </c>
@@ -3007,8 +3097,11 @@
         <f>IF(VLOOKUP(A26,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
         <v>199</v>
       </c>
@@ -3016,8 +3109,11 @@
         <f>IF(VLOOKUP(A27,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>200</v>
       </c>
@@ -3028,8 +3124,11 @@
         <f>IF(VLOOKUP(A28,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="80" t="s">
         <v>201</v>
       </c>
@@ -3040,8 +3139,11 @@
         <f>IF(VLOOKUP(A29,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
         <v>202</v>
       </c>
@@ -3052,48 +3154,63 @@
         <f>IF(VLOOKUP(A30,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
+      <c r="D30" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97" t="str">
+      <c r="B31" s="96"/>
+      <c r="C31" s="96" t="str">
         <f>IF(VLOOKUP(A31,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="97" t="s">
+      <c r="D31" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97" t="str">
+      <c r="B32" s="96"/>
+      <c r="C32" s="96" t="str">
         <f>IF(VLOOKUP(A32,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="97" t="s">
+      <c r="D32" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97" t="str">
+      <c r="B33" s="96"/>
+      <c r="C33" s="96" t="str">
         <f>IF(VLOOKUP(A33,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="97" t="s">
+      <c r="D33" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97" t="str">
+      <c r="B34" s="96"/>
+      <c r="C34" s="96" t="str">
         <f>IF(VLOOKUP(A34,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
         <v>163</v>
       </c>
@@ -3101,8 +3218,11 @@
         <f>IF(VLOOKUP(A35,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
         <v>161</v>
       </c>
@@ -3110,8 +3230,11 @@
         <f>IF(VLOOKUP(A36,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
         <v>162</v>
       </c>
@@ -3119,8 +3242,11 @@
         <f>IF(VLOOKUP(A37,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>164</v>
       </c>
@@ -3128,8 +3254,11 @@
         <f>IF(VLOOKUP(A38,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Não</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
         <v>204</v>
       </c>
@@ -3137,8 +3266,11 @@
         <f>IF(VLOOKUP(A39,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>208</v>
       </c>
@@ -3146,8 +3278,11 @@
         <f>IF(VLOOKUP(A40,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
         <v>203</v>
       </c>
@@ -3155,8 +3290,11 @@
         <f>IF(VLOOKUP(A41,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="76" t="s">
         <v>205</v>
       </c>
@@ -3164,8 +3302,11 @@
         <f>IF(VLOOKUP(A42,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
         <v>206</v>
       </c>
@@ -3173,8 +3314,11 @@
         <f>IF(VLOOKUP(A43,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="76" t="s">
         <v>207</v>
       </c>
@@ -3182,8 +3326,11 @@
         <f>IF(VLOOKUP(A44,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
         <v>122</v>
       </c>
@@ -3191,8 +3338,11 @@
         <f>IF(VLOOKUP(A45,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="76" t="s">
         <v>125</v>
       </c>
@@ -3200,8 +3350,11 @@
         <f>IF(VLOOKUP(A46,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
         <v>123</v>
       </c>
@@ -3209,8 +3362,11 @@
         <f>IF(VLOOKUP(A47,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
         <v>124</v>
       </c>
@@ -3218,8 +3374,11 @@
         <f>IF(VLOOKUP(A48,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="76" t="s">
         <v>461</v>
       </c>
@@ -3227,8 +3386,11 @@
         <f>IF(VLOOKUP(A49,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="80" t="s">
         <v>462</v>
       </c>
@@ -3237,8 +3399,11 @@
         <f>IF(VLOOKUP(A50,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="80" t="s">
         <v>463</v>
       </c>
@@ -3247,8 +3412,11 @@
         <f>IF(VLOOKUP(A51,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="80" t="s">
         <v>464</v>
       </c>
@@ -3259,8 +3427,11 @@
         <f>IF(VLOOKUP(A52,Verificação_Parametros!$A:$B,2,FALSE),"Sim","Não")</f>
         <v>Sim</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="79" t="s">
         <v>73</v>
       </c>
@@ -3268,14 +3439,20 @@
       <c r="C53" s="11" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
         <v>505</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3367,11 +3544,13 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -10531,28 +10710,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="97" t="s">
         <v>437</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97" t="s">
         <v>439</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
+      <c r="A2" s="98"/>
       <c r="B2" s="55" t="s">
         <v>435</v>
       </c>
@@ -26529,8 +26708,8 @@
   <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:C24"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35045,7 +35224,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35156,16 +35335,16 @@
       <c r="A3" s="83">
         <v>2016</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="99">
         <v>3</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="99">
         <v>3</v>
       </c>
-      <c r="D3" s="84">
-        <v>0</v>
-      </c>
-      <c r="E3" s="84">
+      <c r="D3" s="99">
+        <v>0</v>
+      </c>
+      <c r="E3" s="99">
         <v>0</v>
       </c>
       <c r="F3" s="83">
@@ -35209,7 +35388,9 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39215,10 +39396,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="C17:D17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39227,10 +39408,11 @@
     <col min="2" max="2" width="15.85546875" style="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="62"/>
+    <col min="5" max="5" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
@@ -39243,8 +39425,11 @@
       <c r="D1" s="81" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="95" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <v>2018</v>
       </c>
@@ -39258,7 +39443,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
     </row>
   </sheetData>
@@ -39275,7 +39460,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -39622,7 +39807,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/testesmanuais/Template_Dados_Xalingo.xlsx
+++ b/tests/testesmanuais/Template_Dados_Xalingo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Constantes" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
     <externalReference r:id="rId28"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Constantes!$A$1:$C$52</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Custos!$A$1:$D$18</definedName>
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
@@ -63,6 +63,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Constantes!$A$1:$C$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Constantes!$A$1:$C$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Constantes!$A$1:$C$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Constantes!$A$1:$C$52</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
@@ -70,6 +71,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">MódulosOpcionais!$A$1:$C$18</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
@@ -77,6 +79,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parametros!$A$1:$R$149</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Anos_a_Serem_Simulados" vbProcedure="false">[5]Configs!$A$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Ano_Inicial" vbProcedure="false">[5]Configs!$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="CategoriaSAT" vbProcedure="false">[5]Configs!$C$2</definedName>
@@ -87,6 +90,7 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Verificação_Parametros!$A$1:$H$110</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Verificação_Parametros!$A$1:$H$110</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Verificação_Parametros!$A$1:$H$110</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Verificação_Parametros!$A$1:$H$110</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Custos!$A$1:$D$18</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Custos!$A$1:$D$18</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Custos!$A$1:$D$18</definedName>
@@ -94,6 +98,7 @@
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Custos!$A$1:$D$18</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Custos!$A$1:$D$18</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Custos!$A$1:$D$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Custos!$A$1:$D$18</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
@@ -101,16 +106,18 @@
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Modulos!$A$1:$D$26</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="Anos_a_Serem_Simulados" vbProcedure="false">[6]Configs!$A$2</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="Ano_Inicial" vbProcedure="false">[6]Configs!$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="CategoriaSAT" vbProcedure="false">[6]Configs!$C$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$C$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Cenarios!$A$1:$D$13</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Historico!$A$1:$T$115</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Historico!$A$1:$T$115</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Historico!$A$1:$T$115</definedName>
@@ -118,6 +125,7 @@
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Historico!$A$1:$T$115</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Historico!$A$1:$T$115</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Historico!$A$1:$T$115</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Historico!$A$1:$T$115</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
@@ -125,6 +133,7 @@
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Eventos_Inic!$A$2:$L$19</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
@@ -132,6 +141,7 @@
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Lista_de_Parâmetros!$A$1:$E$132</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
@@ -139,6 +149,7 @@
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
     <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
+    <definedName function="false" hidden="false" localSheetId="17" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Funcoes_Inputs!$A$1:$I$226</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
@@ -146,6 +157,7 @@
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
     <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
+    <definedName function="false" hidden="false" localSheetId="18" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Funcoes_Outputs!$A$1:$C$88</definedName>
     <definedName function="false" hidden="false" localSheetId="20" name="Anos_a_Serem_Simulados" vbProcedure="false">[4]Configs!$A$2</definedName>
     <definedName function="false" hidden="false" localSheetId="20" name="Ano_Inicial" vbProcedure="false">[4]Configs!$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="20" name="CategoriaSAT" vbProcedure="false">[4]Configs!$C$2</definedName>
@@ -196,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="591">
   <si>
     <t xml:space="preserve">Variavel</t>
   </si>
@@ -958,6 +970,9 @@
   </si>
   <si>
     <t xml:space="preserve">calcular_taxas_acidentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NomeIniciativa</t>
   </si>
   <si>
     <t xml:space="preserve">Simular</t>
@@ -2560,20 +2575,20 @@
   </sheetPr>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3406,8 +3421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,23 +3447,23 @@
     <tabColor rgb="FF5B9BD5"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3457,31 +3472,49 @@
       <c r="C1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="str">
+        <f aca="false">A3</f>
+        <v>Iniciativa1</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3489,12 +3522,19 @@
       <c r="A4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="str">
+        <f aca="false">A4</f>
+        <v>Iniciativa2</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,108 +3542,164 @@
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="str">
+        <f aca="false">A5</f>
+        <v>Iniciativa3</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>257</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f aca="false">A6</f>
+        <v>Iniciativa4</v>
       </c>
       <c r="C6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f aca="false">A7</f>
+        <v>Iniciativa5</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f aca="false">A8</f>
+        <v>Iniciativa6</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>260</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f aca="false">A9</f>
+        <v>Iniciativa7</v>
       </c>
       <c r="C9" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f aca="false">A10</f>
+        <v>Iniciativa8</v>
       </c>
       <c r="C10" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>262</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f aca="false">A11</f>
+        <v>Iniciativa9</v>
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f aca="false">A12</f>
+        <v>Iniciativa10</v>
       </c>
       <c r="C12" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C13"/>
+  <autoFilter ref="A1:D13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3628,33 +3724,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,10 +3758,10 @@
         <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3676,13 +3772,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3696,13 +3792,13 @@
         <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="str">
@@ -3715,16 +3811,16 @@
         <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1" t="str">
         <f aca="false">_xlfn.concat($B$1,B5,$C$1,C5, $D$1, D5, $E$1,E5)</f>
@@ -3736,7 +3832,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3751,7 +3847,7 @@
         <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3790,40 +3886,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="100.368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="16" min="12" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="99.3520408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="12" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G1" s="25" t="n">
         <v>2011</v>
@@ -3862,24 +3958,24 @@
         <v>2022</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C2" s="26" t="str">
         <f aca="false">VLOOKUP(B2,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -3894,7 +3990,7 @@
         <v>Eventos</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G2" s="26" t="n">
         <v>368</v>
@@ -3918,15 +4014,15 @@
         <v>49</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C3" s="26" t="str">
         <f aca="false">VLOOKUP(B3,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -3941,7 +4037,7 @@
         <v>Eventos</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G3" s="26" t="n">
         <v>21</v>
@@ -3967,15 +4063,15 @@
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
       <c r="S3" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="26" t="str">
         <f aca="false">VLOOKUP(B4,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -3990,7 +4086,7 @@
         <v>Eventos</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K4" s="26" t="n">
         <v>55</v>
@@ -4004,15 +4100,15 @@
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
       <c r="S4" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5" s="26" t="str">
         <f aca="false">VLOOKUP(B5,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4027,7 +4123,7 @@
         <v>Eventos</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G5" s="26" t="n">
         <v>0</v>
@@ -4053,15 +4149,15 @@
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C6" s="26" t="str">
         <f aca="false">VLOOKUP(B6,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4076,7 +4172,7 @@
         <v>Eventos</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G6" s="26" t="n">
         <v>0</v>
@@ -4102,15 +4198,15 @@
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
       <c r="S6" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C7" s="26" t="str">
         <f aca="false">VLOOKUP(B7,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4125,7 +4221,7 @@
         <v>Eventos</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G7" s="26" t="n">
         <v>3</v>
@@ -4151,15 +4247,15 @@
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C8" s="26" t="str">
         <f aca="false">VLOOKUP(B8,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4174,7 +4270,7 @@
         <v>Eventos</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G8" s="26" t="n">
         <v>9</v>
@@ -4200,15 +4296,15 @@
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
       <c r="S8" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C9" s="26" t="str">
         <f aca="false">VLOOKUP(B9,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4223,7 +4319,7 @@
         <v>Eventos</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G9" s="26" t="n">
         <v>0</v>
@@ -4249,15 +4345,15 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
       <c r="S9" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C10" s="26" t="str">
         <f aca="false">VLOOKUP(B10,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4272,7 +4368,7 @@
         <v>Eventos</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G10" s="26" t="n">
         <v>0</v>
@@ -4298,15 +4394,15 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="26" t="str">
         <f aca="false">VLOOKUP(B11,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4321,7 +4417,7 @@
         <v>Eventos</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G11" s="26" t="n">
         <v>9</v>
@@ -4347,15 +4443,15 @@
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C12" s="26" t="str">
         <f aca="false">VLOOKUP(B12,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4370,7 +4466,7 @@
         <v>Eventos</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J12" s="26" t="n">
         <v>0</v>
@@ -4384,15 +4480,15 @@
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C13" s="26" t="str">
         <f aca="false">VLOOKUP(B13,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4407,7 +4503,7 @@
         <v>Eventos</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J13" s="26" t="n">
         <v>0</v>
@@ -4421,15 +4517,15 @@
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C14" s="26" t="str">
         <f aca="false">VLOOKUP(B14,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4444,7 +4540,7 @@
         <v>Eventos</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J14" s="27" t="n">
         <v>807</v>
@@ -4458,15 +4554,15 @@
       <c r="Q14" s="26"/>
       <c r="R14" s="26"/>
       <c r="S14" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C15" s="26" t="str">
         <f aca="false">VLOOKUP(B15,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4481,7 +4577,7 @@
         <v>Eventos</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J15" s="27" t="n">
         <v>66</v>
@@ -4495,15 +4591,15 @@
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C16" s="26" t="str">
         <f aca="false">VLOOKUP(B16,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4518,7 +4614,7 @@
         <v>Eventos</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J16" s="26" t="n">
         <v>0</v>
@@ -4532,15 +4628,15 @@
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C17" s="26" t="str">
         <f aca="false">VLOOKUP(B17,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4555,7 +4651,7 @@
         <v>Eventos</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J17" s="26" t="n">
         <v>0</v>
@@ -4569,12 +4665,12 @@
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>12</v>
@@ -4592,7 +4688,7 @@
         <v>Eventos</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
@@ -4610,12 +4706,12 @@
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>13</v>
@@ -4633,7 +4729,7 @@
         <v>Eventos</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -4651,12 +4747,12 @@
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>14</v>
@@ -4674,19 +4770,19 @@
         <v>Eventos</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M20" s="26" t="n">
         <f aca="false">SUM(G65:L65)</f>
         <v>1</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>15</v>
@@ -4704,22 +4800,22 @@
         <v>Eventos</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M21" s="26" t="n">
         <f aca="false">SUM(G66:L66)</f>
         <v>13</v>
       </c>
       <c r="S21" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C22" s="26" t="str">
         <f aca="false">VLOOKUP(B22,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4734,7 +4830,7 @@
         <v>Eventos</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
@@ -4745,15 +4841,15 @@
       <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
       <c r="S22" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C23" s="26" t="str">
         <f aca="false">VLOOKUP(B23,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4768,20 +4864,20 @@
         <v>Eventos</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="0"/>
       <c r="R23" s="0"/>
       <c r="S23" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C24" s="26" t="str">
         <f aca="false">VLOOKUP(B24,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4796,7 +4892,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G24" s="26" t="n">
         <v>72.2869</v>
@@ -4819,15 +4915,15 @@
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
       <c r="S24" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C25" s="26" t="str">
         <f aca="false">VLOOKUP(B25,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4842,7 +4938,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G25" s="26" t="n">
         <v>5.3381</v>
@@ -4865,15 +4961,15 @@
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
       <c r="S25" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C26" s="26" t="str">
         <f aca="false">VLOOKUP(B26,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4888,7 +4984,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G26" s="26" t="n">
         <v>5.5895</v>
@@ -4911,15 +5007,15 @@
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
       <c r="S26" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C27" s="26" t="str">
         <f aca="false">VLOOKUP(B27,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4934,7 +5030,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G27" s="26" t="n">
         <v>56.0963</v>
@@ -4957,15 +5053,15 @@
       <c r="Q27" s="26"/>
       <c r="R27" s="26"/>
       <c r="S27" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" s="26" t="str">
         <f aca="false">VLOOKUP(B28,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -4980,7 +5076,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G28" s="26" t="n">
         <v>63.0679</v>
@@ -5003,15 +5099,15 @@
       <c r="Q28" s="26"/>
       <c r="R28" s="26"/>
       <c r="S28" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C29" s="26" t="str">
         <f aca="false">VLOOKUP(B29,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -5026,7 +5122,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G29" s="26" t="n">
         <v>73.1403</v>
@@ -5049,15 +5145,15 @@
       <c r="Q29" s="26"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G30" s="26" t="n">
         <v>1.2427</v>
@@ -5082,7 +5178,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>57</v>
@@ -5100,10 +5196,10 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N31" s="26" t="n">
         <v>1</v>
@@ -5117,12 +5213,12 @@
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>22</v>
@@ -5140,10 +5236,10 @@
         <v>Contexto Externo</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O32" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P32" s="26" t="n">
         <f aca="false">SUM(G64:L64)/(SUM(G3:L3)+SUM(G7:L7)+SUM(G11:L11))</f>
@@ -5152,12 +5248,12 @@
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>116</v>
@@ -5175,7 +5271,7 @@
         <v>Outros</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -5196,15 +5292,15 @@
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -5232,7 +5328,7 @@
     </row>
     <row r="35" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>59</v>
@@ -5250,7 +5346,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -5274,15 +5370,15 @@
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -5314,7 +5410,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>26</v>
@@ -5332,7 +5428,7 @@
         <v>Outros</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
@@ -5352,7 +5448,7 @@
       </c>
       <c r="N37" s="26"/>
       <c r="O37" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P37" s="26" t="n">
         <f aca="false">AVERAGE(K37:L37)*0.1</f>
@@ -5361,12 +5457,12 @@
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>27</v>
@@ -5384,18 +5480,18 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P38" s="26" t="n">
         <v>6000</v>
       </c>
       <c r="S38" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>194</v>
@@ -5413,7 +5509,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
@@ -5427,12 +5523,12 @@
       <c r="Q39" s="0"/>
       <c r="R39" s="0"/>
       <c r="S39" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>195</v>
@@ -5450,17 +5546,17 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>196</v>
@@ -5478,7 +5574,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -5493,12 +5589,12 @@
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>197</v>
@@ -5516,15 +5612,15 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S42" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>198</v>
@@ -5542,7 +5638,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -5557,12 +5653,12 @@
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>199</v>
@@ -5580,7 +5676,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -5595,12 +5691,12 @@
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>200</v>
@@ -5618,15 +5714,15 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S45" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>201</v>
@@ -5644,15 +5740,15 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>202</v>
@@ -5670,7 +5766,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -5685,12 +5781,12 @@
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>203</v>
@@ -5708,7 +5804,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -5723,12 +5819,12 @@
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>204</v>
@@ -5746,7 +5842,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -5761,12 +5857,12 @@
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>205</v>
@@ -5784,7 +5880,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -5799,12 +5895,12 @@
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>206</v>
@@ -5822,7 +5918,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G51" s="26"/>
       <c r="H51" s="26"/>
@@ -5837,12 +5933,12 @@
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="34" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>207</v>
@@ -5860,7 +5956,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G52" s="26"/>
       <c r="H52" s="26"/>
@@ -5875,12 +5971,12 @@
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>208</v>
@@ -5898,18 +5994,18 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S53" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C54" s="26" t="str">
         <f aca="false">VLOOKUP(B54,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -5924,7 +6020,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N54" s="26" t="n">
         <v>0</v>
@@ -5938,15 +6034,15 @@
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C55" s="26" t="str">
         <f aca="false">VLOOKUP(B55,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -5961,7 +6057,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P55" s="35" t="n">
         <f aca="false">284920903.74/252</f>
@@ -5970,12 +6066,12 @@
       <c r="Q55" s="35"/>
       <c r="R55" s="35"/>
       <c r="S55" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>120</v>
@@ -5993,7 +6089,7 @@
         <v>Outros</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G56" s="26" t="n">
         <v>0</v>
@@ -6022,15 +6118,15 @@
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C57" s="26" t="str">
         <f aca="false">VLOOKUP(B57,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -6045,7 +6141,7 @@
         <v>Outros</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N57" s="26" t="n">
         <v>0</v>
@@ -6059,12 +6155,12 @@
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>7</v>
@@ -6082,7 +6178,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G58" s="26" t="n">
         <v>0.03</v>
@@ -6121,12 +6217,12 @@
         <v>0.03</v>
       </c>
       <c r="S58" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>31</v>
@@ -6144,7 +6240,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O59" s="26" t="n">
         <v>2289.12</v>
@@ -6155,12 +6251,12 @@
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>32</v>
@@ -6178,7 +6274,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O60" s="26" t="n">
         <v>419405.11</v>
@@ -6189,12 +6285,12 @@
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>33</v>
@@ -6212,7 +6308,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O61" s="26" t="n">
         <v>178766</v>
@@ -6223,12 +6319,12 @@
       <c r="Q61" s="26"/>
       <c r="R61" s="26"/>
       <c r="S61" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>34</v>
@@ -6246,7 +6342,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -6265,12 +6361,12 @@
       <c r="Q62" s="26"/>
       <c r="R62" s="26"/>
       <c r="S62" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>165</v>
@@ -6288,7 +6384,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G63" s="31" t="n">
         <f aca="false">139/2</f>
@@ -6315,12 +6411,12 @@
         <v>35.5</v>
       </c>
       <c r="S63" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>166</v>
@@ -6338,7 +6434,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G64" s="31" t="n">
         <v>0</v>
@@ -6359,12 +6455,12 @@
         <v>0</v>
       </c>
       <c r="S64" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>167</v>
@@ -6382,7 +6478,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G65" s="31" t="n">
         <v>0</v>
@@ -6405,12 +6501,12 @@
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>168</v>
@@ -6428,7 +6524,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G66" s="31" t="n">
         <v>0</v>
@@ -6451,15 +6547,15 @@
       <c r="Q66" s="26"/>
       <c r="R66" s="26"/>
       <c r="S66" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G67" s="31" t="n">
         <f aca="false">SUM(G3,G11)</f>
@@ -6488,7 +6584,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>53</v>
@@ -6530,7 +6626,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>54</v>
@@ -6572,7 +6668,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>55</v>
@@ -6608,7 +6704,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>56</v>
@@ -6650,10 +6746,10 @@
     </row>
     <row r="72" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C72" s="26" t="e">
         <f aca="false">VLOOKUP(B72,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -6668,7 +6764,7 @@
         <v>#N/A</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G72" s="31" t="n">
         <v>2697.5833</v>
@@ -6703,15 +6799,15 @@
       <c r="Q72" s="26"/>
       <c r="R72" s="26"/>
       <c r="S72" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C73" s="26" t="e">
         <f aca="false">VLOOKUP(B73,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -6726,7 +6822,7 @@
         <v>#N/A</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G73" s="31" t="n">
         <v>91272790.47</v>
@@ -6753,12 +6849,12 @@
       <c r="Q73" s="26"/>
       <c r="R73" s="26"/>
       <c r="S73" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>169</v>
@@ -6776,7 +6872,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G74" s="38" t="n">
         <v>0.248297</v>
@@ -6798,12 +6894,12 @@
       </c>
       <c r="M74" s="39"/>
       <c r="S74" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>170</v>
@@ -6821,7 +6917,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G75" s="31" t="n">
         <v>510171.36</v>
@@ -6844,12 +6940,12 @@
       <c r="Q75" s="26"/>
       <c r="R75" s="26"/>
       <c r="S75" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>171</v>
@@ -6867,7 +6963,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G76" s="40" t="n">
         <v>0.033921</v>
@@ -6890,15 +6986,15 @@
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
       <c r="S76" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C77" s="28" t="str">
         <f aca="false">VLOOKUP(B77,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -6913,7 +7009,7 @@
         <v>Eventos</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G77" s="28" t="n">
         <f aca="false">G78*G72</f>
@@ -6946,12 +7042,12 @@
       <c r="Q77" s="28"/>
       <c r="R77" s="28"/>
       <c r="S77" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>141</v>
@@ -6994,7 +7090,7 @@
     </row>
     <row r="79" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" s="28" t="s">
         <v>4</v>
@@ -7012,7 +7108,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G79" s="28" t="n">
         <v>3112</v>
@@ -7056,12 +7152,12 @@
         <v>1857</v>
       </c>
       <c r="S79" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>174</v>
@@ -7079,7 +7175,7 @@
         <v>Contexto Externo</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G80" s="41" t="n">
         <v>0.04</v>
@@ -7118,12 +7214,12 @@
         <v>0.03</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>42</v>
@@ -7141,7 +7237,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
@@ -7164,12 +7260,12 @@
       <c r="Q81" s="28"/>
       <c r="R81" s="28"/>
       <c r="S81" s="28" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>21</v>
@@ -7187,7 +7283,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
@@ -7204,12 +7300,12 @@
       <c r="Q82" s="28"/>
       <c r="R82" s="28"/>
       <c r="S82" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>23</v>
@@ -7227,7 +7323,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>0</v>
@@ -7262,12 +7358,12 @@
       <c r="Q83" s="0"/>
       <c r="R83" s="0"/>
       <c r="S83" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B84" s="42" t="s">
         <v>24</v>
@@ -7285,7 +7381,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F84" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G84" s="43" t="n">
         <v>0</v>
@@ -7329,12 +7425,12 @@
         <v>0</v>
       </c>
       <c r="S84" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B85" s="43" t="s">
         <v>25</v>
@@ -7352,7 +7448,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G85" s="43" t="n">
         <v>0</v>
@@ -7396,12 +7492,12 @@
         <v>0</v>
       </c>
       <c r="S85" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B86" s="43" t="s">
         <v>28</v>
@@ -7419,7 +7515,7 @@
         <v>Outros</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G86" s="43" t="n">
         <v>0</v>
@@ -7463,12 +7559,12 @@
         <v>0</v>
       </c>
       <c r="S86" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B87" s="43" t="s">
         <v>29</v>
@@ -7486,7 +7582,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G87" s="43" t="n">
         <v>0</v>
@@ -7530,15 +7626,15 @@
         <v>0</v>
       </c>
       <c r="S87" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C88" s="34" t="str">
         <f aca="false">VLOOKUP(B88,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -7553,15 +7649,15 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S88" s="34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>193</v>
@@ -7579,15 +7675,15 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S89" s="34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B90" s="28" t="s">
         <v>30</v>
@@ -7605,7 +7701,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
@@ -7623,12 +7719,12 @@
       <c r="Q90" s="28"/>
       <c r="R90" s="28"/>
       <c r="S90" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B91" s="34" t="s">
         <v>158</v>
@@ -7646,7 +7742,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -7661,15 +7757,15 @@
       <c r="Q91" s="34"/>
       <c r="R91" s="34"/>
       <c r="S91" s="34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C92" s="0" t="str">
         <f aca="false">VLOOKUP(B92,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -7684,10 +7780,10 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N92" s="0" t="n">
         <v>1</v>
@@ -7701,12 +7797,12 @@
       <c r="Q92" s="0"/>
       <c r="R92" s="0"/>
       <c r="S92" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B93" s="28" t="s">
         <v>6</v>
@@ -7724,7 +7820,7 @@
         <v>#N/A</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
@@ -7761,12 +7857,12 @@
         <v>65678114.1</v>
       </c>
       <c r="S93" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B94" s="28" t="s">
         <v>10</v>
@@ -7784,7 +7880,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G94" s="28" t="n">
         <v>8.8</v>
@@ -7823,12 +7919,12 @@
         <v>8.8</v>
       </c>
       <c r="S94" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B95" s="28" t="s">
         <v>11</v>
@@ -7846,7 +7942,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
@@ -7871,12 +7967,12 @@
         <v>22.8</v>
       </c>
       <c r="S95" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>172</v>
@@ -7894,7 +7990,7 @@
         <v>Contexto Externo</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G96" s="34" t="n">
         <v>0</v>
@@ -7933,12 +8029,12 @@
         <v>0</v>
       </c>
       <c r="S96" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B97" s="34" t="s">
         <v>173</v>
@@ -7956,7 +8052,7 @@
         <v>Contexto Externo</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G97" s="34" t="n">
         <v>0.1</v>
@@ -8006,12 +8102,12 @@
         <v>0.1</v>
       </c>
       <c r="S97" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B98" s="28" t="s">
         <v>16</v>
@@ -8029,7 +8125,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
@@ -8062,15 +8158,15 @@
         <v>300</v>
       </c>
       <c r="S98" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C99" s="28" t="str">
         <f aca="false">VLOOKUP(B99,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -8085,7 +8181,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G99" s="28" t="n">
         <v>0</v>
@@ -8124,12 +8220,12 @@
         <v>0</v>
       </c>
       <c r="S99" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>17</v>
@@ -8147,7 +8243,7 @@
         <v>Despesas/Custos</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
@@ -8184,15 +8280,15 @@
         <v>2522743.88</v>
       </c>
       <c r="S100" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C101" s="44" t="str">
         <f aca="false">VLOOKUP(B101,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -8207,7 +8303,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F101" s="44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G101" s="44" t="n">
         <v>1</v>
@@ -8257,15 +8353,15 @@
         <v>1</v>
       </c>
       <c r="S101" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C102" s="44" t="str">
         <f aca="false">VLOOKUP(B102,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -8280,7 +8376,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F102" s="44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G102" s="44" t="n">
         <v>1</v>
@@ -8297,15 +8393,15 @@
       <c r="Q102" s="44"/>
       <c r="R102" s="44"/>
       <c r="S102" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C103" s="34" t="str">
         <f aca="false">VLOOKUP(B103,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -8320,7 +8416,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
@@ -8335,15 +8431,15 @@
       <c r="Q103" s="34"/>
       <c r="R103" s="34"/>
       <c r="S103" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C104" s="34" t="str">
         <f aca="false">VLOOKUP(B104,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -8358,7 +8454,7 @@
         <v>Empresa/Operacionais</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
@@ -8373,12 +8469,12 @@
       <c r="Q104" s="34"/>
       <c r="R104" s="34"/>
       <c r="S104" s="34" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>210</v>
@@ -8396,7 +8492,7 @@
         <v>Contexto Externo</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>0.1</v>
@@ -8417,15 +8513,15 @@
         <v>0.1</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C106" s="1" t="e">
         <f aca="false">VLOOKUP(B106,Lista_de_Parâmetros!A:D,3,0)</f>
@@ -8440,7 +8536,7 @@
         <v>#N/A</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>0.0811</v>
@@ -8469,7 +8565,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,7 +8575,7 @@
         <v>67</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q108" s="0"/>
       <c r="R108" s="0"/>
@@ -8491,7 +8587,7 @@
         <v>25</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q109" s="0"/>
       <c r="R109" s="0"/>
@@ -8503,12 +8599,12 @@
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C111" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -8538,8 +8634,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8866,7 +8962,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B14" s="45" t="n">
         <f aca="false">VLOOKUP($A14,Historico!$B:$R,B$1,0)</f>
@@ -8891,7 +8987,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B15" s="45" t="n">
         <f aca="false">VLOOKUP($A15,Historico!$B:$R,B$1,0)</f>
@@ -8966,7 +9062,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B18" s="45" t="n">
         <f aca="false">VLOOKUP($A18,Historico!$B:$R,B$1,0)</f>
@@ -9016,7 +9112,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B20" s="45" t="n">
         <f aca="false">VLOOKUP($A20,Historico!$B:$R,B$1,0)</f>
@@ -9041,7 +9137,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B21" s="45" t="n">
         <f aca="false">VLOOKUP($A21,Historico!$B:$R,B$1,0)</f>
@@ -9066,7 +9162,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B22" s="45" t="n">
         <f aca="false">VLOOKUP($A22,Historico!$B:$R,B$1,0)</f>
@@ -9091,7 +9187,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B23" s="45" t="n">
         <f aca="false">VLOOKUP($A23,Historico!$B:$R,B$1,0)</f>
@@ -9556,7 +9652,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -9576,7 +9672,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -9636,7 +9732,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -9676,7 +9772,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
@@ -9696,7 +9792,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -9716,7 +9812,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -9736,7 +9832,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -9979,25 +10075,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="23" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="36" min="33" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="45" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="45" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="32" min="23" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="36" min="33" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10038,10 +10134,10 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>174</v>
@@ -10050,22 +10146,22 @@
         <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>183</v>
@@ -10614,35 +10710,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4744897959184"/>
     <col collapsed="false" hidden="true" max="11" min="10" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
@@ -10653,37 +10749,37 @@
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46"/>
       <c r="B2" s="48" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11458,25 +11554,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="114.939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.4744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="113.663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>215</v>
@@ -11487,16 +11583,16 @@
         <v>204</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11504,16 +11600,16 @@
         <v>205</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,16 +11617,16 @@
         <v>206</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11538,16 +11634,16 @@
         <v>207</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11555,16 +11651,16 @@
         <v>208</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11572,16 +11668,16 @@
         <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11589,17 +11685,17 @@
         <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A8,LEN(A8)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável ICustoFAP</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11607,17 +11703,17 @@
         <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A9,LEN(A9)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável IFrequenciaFAP</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11625,17 +11721,17 @@
         <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A10,LEN(A10)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável IGravidadeFAP</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11643,17 +11739,17 @@
         <v>183</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A11,LEN(A11)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11661,17 +11757,17 @@
         <v>184</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A12,LEN(A12)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11679,17 +11775,17 @@
         <v>185</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A13,LEN(A13)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11697,17 +11793,17 @@
         <v>186</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A14,LEN(A14)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa4</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11715,17 +11811,17 @@
         <v>187</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A15,LEN(A15)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11733,17 +11829,17 @@
         <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A16,LEN(A16)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável ReajustePlano</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11751,17 +11847,17 @@
         <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A17,LEN(A17)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável TempoContratacao</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11769,17 +11865,17 @@
         <v>48</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A18,LEN(A18)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável ICustoFAP</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11787,17 +11883,17 @@
         <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A19,LEN(A19)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável IFrequenciaFAP</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,17 +11901,17 @@
         <v>46</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A20,LEN(A20)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável IGravidadeFAP</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11823,17 +11919,17 @@
         <v>188</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A21,LEN(A21)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11841,17 +11937,17 @@
         <v>189</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A22,LEN(A22)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11859,17 +11955,17 @@
         <v>190</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A23,LEN(A23)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11877,17 +11973,17 @@
         <v>191</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A24,LEN(A24)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa4</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11895,17 +11991,17 @@
         <v>192</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A25,LEN(A25)-5)</f>
         <v>Parâmetro calculado para a Regressão da Variável Multa5</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11913,17 +12009,17 @@
         <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A26,LEN(A26)-8)</f>
         <v>Parâmetro calculado para a Regressão da Variável DesligVoluntarios</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11931,17 +12027,17 @@
         <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A27,LEN(A27)-8)</f>
         <v>Parâmetro calculado para a Regressão da Variável ReajustePlano</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11949,17 +12045,17 @@
         <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A28,LEN(A28)-8)</f>
         <v>Parâmetro calculado para a Regressão da Variável TempoContratacao</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11967,17 +12063,17 @@
         <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A29,LEN(A29)-8)</f>
         <v>Parâmetro calculado para a Regressão da Variável DesligVoluntarios</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11985,17 +12081,17 @@
         <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A30,LEN(A30)-8)</f>
         <v>Parâmetro calculado para a Regressão da Variável ReajustePlano</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12003,17 +12099,17 @@
         <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A31,LEN(A31)-8)</f>
         <v>Parâmetro calculado para a Regressão da Variável TempoContratacao</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12021,17 +12117,17 @@
         <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A32,LEN(A32)-7)</f>
         <v>Parâmetro calculado para a Regressão da Variável DesigVoluntarios</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12039,17 +12135,17 @@
         <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">"Parâmetro calculado para a Regressão da Variável "&amp;RIGHT(A33,LEN(A33)-7)</f>
         <v>Parâmetro calculado para a Regressão da Variável TempoContratacao</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12057,16 +12153,16 @@
         <v>172</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12074,16 +12170,16 @@
         <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12091,16 +12187,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12108,16 +12204,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12125,16 +12221,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12142,16 +12238,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12159,16 +12255,16 @@
         <v>25</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,16 +12272,16 @@
         <v>199</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,16 +12289,16 @@
         <v>200</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12210,16 +12306,16 @@
         <v>201</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12227,16 +12323,16 @@
         <v>202</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12244,16 +12340,16 @@
         <v>203</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,16 +12357,16 @@
         <v>29</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12278,16 +12374,16 @@
         <v>27</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12295,16 +12391,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12312,16 +12408,16 @@
         <v>21</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,16 +12425,16 @@
         <v>30</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12346,16 +12442,16 @@
         <v>16</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12363,16 +12459,16 @@
         <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12380,67 +12476,67 @@
         <v>17</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12448,16 +12544,16 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12465,16 +12561,16 @@
         <v>120</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12482,16 +12578,16 @@
         <v>173</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12499,33 +12595,33 @@
         <v>173</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12533,16 +12629,16 @@
         <v>4</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,16 +12646,16 @@
         <v>158</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12567,169 +12663,169 @@
         <v>10</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D73" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12737,16 +12833,16 @@
         <v>12</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12754,16 +12850,16 @@
         <v>13</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12771,16 +12867,16 @@
         <v>14</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12788,322 +12884,322 @@
         <v>15</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13111,16 +13207,16 @@
         <v>194</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13128,16 +13224,16 @@
         <v>195</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13145,16 +13241,16 @@
         <v>196</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13162,16 +13258,16 @@
         <v>197</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13179,16 +13275,16 @@
         <v>198</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13196,67 +13292,67 @@
         <v>116</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13264,16 +13360,16 @@
         <v>28</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13281,16 +13377,16 @@
         <v>23</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13298,16 +13394,16 @@
         <v>134</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13315,16 +13411,16 @@
         <v>138</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13332,16 +13428,16 @@
         <v>125</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13349,16 +13445,16 @@
         <v>130</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13366,16 +13462,16 @@
         <v>133</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13383,16 +13479,16 @@
         <v>137</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13400,16 +13496,16 @@
         <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13417,16 +13513,16 @@
         <v>129</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13434,16 +13530,16 @@
         <v>136</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13451,16 +13547,16 @@
         <v>140</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13468,16 +13564,16 @@
         <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13485,16 +13581,16 @@
         <v>132</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13502,16 +13598,16 @@
         <v>135</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13519,16 +13615,16 @@
         <v>139</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13536,16 +13632,16 @@
         <v>126</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13553,16 +13649,16 @@
         <v>131</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13570,16 +13666,16 @@
         <v>22</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13587,33 +13683,33 @@
         <v>26</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13621,33 +13717,33 @@
         <v>7</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13655,16 +13751,16 @@
         <v>141</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,16 +13768,16 @@
         <v>42</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13689,16 +13785,16 @@
         <v>174</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13706,16 +13802,16 @@
         <v>193</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13723,16 +13819,16 @@
         <v>210</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13740,16 +13836,16 @@
         <v>165</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13757,16 +13853,16 @@
         <v>166</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13774,16 +13870,16 @@
         <v>167</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13791,16 +13887,16 @@
         <v>168</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13808,16 +13904,16 @@
         <v>169</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13825,16 +13921,16 @@
         <v>170</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13842,16 +13938,16 @@
         <v>171</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -13882,45 +13978,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14036,7 +14132,7 @@
         <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false">0</f>
@@ -14072,7 +14168,7 @@
         <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C6" s="1" t="n">
         <f aca="false">0</f>
@@ -14108,7 +14204,7 @@
         <v>228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false">0</f>
@@ -14144,7 +14240,7 @@
         <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false">0</f>
@@ -14180,7 +14276,7 @@
         <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="n">
         <f aca="false">0</f>
@@ -14216,7 +14312,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C10" s="1" t="n">
         <f aca="false">0</f>
@@ -14252,7 +14348,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">0</f>
@@ -14288,7 +14384,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C12" s="1" t="n">
         <f aca="false">0</f>
@@ -14324,7 +14420,7 @@
         <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C13" s="1" t="n">
         <f aca="false">0</f>
@@ -14504,7 +14600,7 @@
         <v>232</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false">0</f>
@@ -14540,7 +14636,7 @@
         <v>232</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false">0</f>
@@ -14576,7 +14672,7 @@
         <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">0</f>
@@ -14612,7 +14708,7 @@
         <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false">0</f>
@@ -14648,7 +14744,7 @@
         <v>232</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C22" s="1" t="n">
         <f aca="false">0</f>
@@ -14684,7 +14780,7 @@
         <v>232</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="n">
         <f aca="false">0</f>
@@ -14720,7 +14816,7 @@
         <v>232</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false">0</f>
@@ -14756,7 +14852,7 @@
         <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="false">0</f>
@@ -14792,7 +14888,7 @@
         <v>232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C26" s="1" t="n">
         <f aca="false">0</f>
@@ -14828,7 +14924,7 @@
         <v>232</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false">0</f>
@@ -14864,7 +14960,7 @@
         <v>232</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C28" s="1" t="n">
         <f aca="false">0</f>
@@ -14900,7 +14996,7 @@
         <v>232</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="1" t="n">
         <f aca="false">0</f>
@@ -14936,7 +15032,7 @@
         <v>232</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="1" t="n">
         <f aca="false">0</f>
@@ -14972,7 +15068,7 @@
         <v>232</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="1" t="n">
         <f aca="false">0</f>
@@ -15008,7 +15104,7 @@
         <v>232</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="1" t="n">
         <f aca="false">0</f>
@@ -15044,7 +15140,7 @@
         <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="1" t="n">
         <f aca="false">0</f>
@@ -15440,7 +15536,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="1" t="n">
         <f aca="false">0</f>
@@ -15476,7 +15572,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C45" s="1" t="n">
         <f aca="false">0</f>
@@ -15512,7 +15608,7 @@
         <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C46" s="1" t="n">
         <f aca="false">0</f>
@@ -15548,7 +15644,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C47" s="1" t="n">
         <f aca="false">0</f>
@@ -15584,7 +15680,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C48" s="1" t="n">
         <f aca="false">0</f>
@@ -15620,7 +15716,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C49" s="1" t="n">
         <f aca="false">0</f>
@@ -15656,7 +15752,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C50" s="1" t="n">
         <f aca="false">1</f>
@@ -17276,7 +17372,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C95" s="1" t="n">
         <f aca="false">0</f>
@@ -17312,7 +17408,7 @@
         <v>86</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C96" s="1" t="n">
         <f aca="false">0</f>
@@ -17456,7 +17552,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C100" s="1" t="n">
         <f aca="false">0</f>
@@ -17528,7 +17624,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C102" s="1" t="n">
         <f aca="false">0</f>
@@ -17633,7 +17729,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
@@ -17669,10 +17765,10 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C106" s="1" t="n">
         <f aca="false">0</f>
@@ -17705,10 +17801,10 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C107" s="1" t="n">
         <f aca="false">0</f>
@@ -17741,10 +17837,10 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C108" s="1" t="n">
         <f aca="false">0</f>
@@ -17777,10 +17873,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C109" s="1" t="n">
         <f aca="false">0</f>
@@ -17813,10 +17909,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C110" s="1" t="n">
         <f aca="false">0</f>
@@ -17849,10 +17945,10 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C111" s="1" t="n">
         <f aca="false">0</f>
@@ -17885,10 +17981,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C112" s="1" t="n">
         <f aca="false">0</f>
@@ -17921,10 +18017,10 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C113" s="1" t="n">
         <f aca="false">0</f>
@@ -17957,10 +18053,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C114" s="1" t="n">
         <f aca="false">0</f>
@@ -17993,10 +18089,10 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C115" s="1" t="n">
         <f aca="false">0</f>
@@ -18029,10 +18125,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C116" s="1" t="n">
         <f aca="false">0</f>
@@ -18065,10 +18161,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C117" s="1" t="n">
         <f aca="false">0</f>
@@ -18101,10 +18197,10 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C118" s="1" t="n">
         <f aca="false">0</f>
@@ -18137,10 +18233,10 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C119" s="1" t="n">
         <f aca="false">0</f>
@@ -18173,10 +18269,10 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C120" s="1" t="n">
         <f aca="false">0</f>
@@ -18209,10 +18305,10 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C121" s="1" t="n">
         <f aca="false">0</f>
@@ -18245,10 +18341,10 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C122" s="1" t="n">
         <f aca="false">0</f>
@@ -18500,7 +18596,7 @@
         <v>92</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C129" s="1" t="n">
         <f aca="false">0</f>
@@ -18536,7 +18632,7 @@
         <v>92</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C130" s="1" t="n">
         <f aca="false">0</f>
@@ -18572,7 +18668,7 @@
         <v>92</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C131" s="1" t="n">
         <f aca="false">0</f>
@@ -18608,7 +18704,7 @@
         <v>92</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C132" s="1" t="n">
         <f aca="false">0</f>
@@ -18680,7 +18776,7 @@
         <v>72</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C134" s="1" t="n">
         <f aca="false">0</f>
@@ -18716,7 +18812,7 @@
         <v>72</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C135" s="1" t="n">
         <f aca="false">0</f>
@@ -18752,7 +18848,7 @@
         <v>72</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C136" s="1" t="n">
         <f aca="false">0</f>
@@ -18788,7 +18884,7 @@
         <v>72</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C137" s="1" t="n">
         <f aca="false">0</f>
@@ -18824,7 +18920,7 @@
         <v>72</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C138" s="1" t="n">
         <f aca="false">0</f>
@@ -18860,7 +18956,7 @@
         <v>72</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C139" s="1" t="n">
         <f aca="false">0</f>
@@ -18896,7 +18992,7 @@
         <v>72</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C140" s="1" t="n">
         <f aca="false">0</f>
@@ -18932,7 +19028,7 @@
         <v>72</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C141" s="1" t="n">
         <f aca="false">0</f>
@@ -19184,7 +19280,7 @@
         <v>80</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C148" s="1" t="n">
         <f aca="false">0</f>
@@ -19220,7 +19316,7 @@
         <v>80</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C149" s="1" t="n">
         <f aca="false">0</f>
@@ -19256,7 +19352,7 @@
         <v>80</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C150" s="1" t="n">
         <f aca="false">0</f>
@@ -19292,7 +19388,7 @@
         <v>80</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C151" s="1" t="n">
         <f aca="false">0</f>
@@ -19328,7 +19424,7 @@
         <v>80</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C152" s="1" t="n">
         <f aca="false">0</f>
@@ -19364,7 +19460,7 @@
         <v>80</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C153" s="1" t="n">
         <f aca="false">0</f>
@@ -19400,7 +19496,7 @@
         <v>80</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C154" s="1" t="n">
         <f aca="false">0</f>
@@ -19436,7 +19532,7 @@
         <v>80</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C155" s="1" t="n">
         <f aca="false">0</f>
@@ -19688,7 +19784,7 @@
         <v>78</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C162" s="1" t="n">
         <f aca="false">0</f>
@@ -19724,7 +19820,7 @@
         <v>78</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C163" s="1" t="n">
         <f aca="false">0</f>
@@ -19760,7 +19856,7 @@
         <v>76</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C164" s="1" t="n">
         <f aca="false">0</f>
@@ -19904,7 +20000,7 @@
         <v>70</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C168" s="1" t="n">
         <f aca="false">0</f>
@@ -19940,7 +20036,7 @@
         <v>70</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C169" s="1" t="n">
         <f aca="false">0</f>
@@ -19976,7 +20072,7 @@
         <v>70</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C170" s="1" t="n">
         <f aca="false">0</f>
@@ -20012,7 +20108,7 @@
         <v>70</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C171" s="1" t="n">
         <f aca="false">0</f>
@@ -20048,7 +20144,7 @@
         <v>70</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C172" s="1" t="n">
         <f aca="false">0</f>
@@ -20084,7 +20180,7 @@
         <v>70</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C173" s="1" t="n">
         <f aca="false">0</f>
@@ -20120,7 +20216,7 @@
         <v>70</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C174" s="1" t="n">
         <f aca="false">0</f>
@@ -20156,7 +20252,7 @@
         <v>70</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C175" s="1" t="n">
         <f aca="false">0</f>
@@ -20408,7 +20504,7 @@
         <v>253</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C182" s="1" t="n">
         <f aca="false">0</f>
@@ -20444,7 +20540,7 @@
         <v>253</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C183" s="1" t="n">
         <f aca="false">0</f>
@@ -20480,7 +20576,7 @@
         <v>253</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C184" s="1" t="n">
         <f aca="false">0</f>
@@ -20516,7 +20612,7 @@
         <v>253</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C185" s="1" t="n">
         <f aca="false">0</f>
@@ -20552,7 +20648,7 @@
         <v>253</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C186" s="1" t="n">
         <f aca="false">0</f>
@@ -20588,7 +20684,7 @@
         <v>253</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C187" s="1" t="n">
         <f aca="false">0</f>
@@ -20624,7 +20720,7 @@
         <v>253</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C188" s="1" t="n">
         <f aca="false">0</f>
@@ -20660,7 +20756,7 @@
         <v>253</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C189" s="1" t="n">
         <f aca="false">0</f>
@@ -20696,7 +20792,7 @@
         <v>225</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C190" s="1" t="n">
         <f aca="false">0</f>
@@ -20732,7 +20828,7 @@
         <v>225</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C191" s="1" t="n">
         <f aca="false">0</f>
@@ -20768,7 +20864,7 @@
         <v>225</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C192" s="1" t="n">
         <f aca="false">0</f>
@@ -20804,7 +20900,7 @@
         <v>225</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C193" s="1" t="n">
         <f aca="false">0</f>
@@ -20840,7 +20936,7 @@
         <v>225</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C194" s="1" t="n">
         <f aca="false">0</f>
@@ -20876,7 +20972,7 @@
         <v>225</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C195" s="1" t="n">
         <f aca="false">0</f>
@@ -20912,7 +21008,7 @@
         <v>225</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C196" s="1" t="n">
         <f aca="false">0</f>
@@ -20948,7 +21044,7 @@
         <v>225</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C197" s="1" t="n">
         <f aca="false">0</f>
@@ -21236,7 +21332,7 @@
         <v>239</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C205" s="1" t="n">
         <f aca="false">0</f>
@@ -21272,7 +21368,7 @@
         <v>239</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C206" s="1" t="n">
         <f aca="false">0</f>
@@ -21308,7 +21404,7 @@
         <v>239</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C207" s="1" t="n">
         <f aca="false">0</f>
@@ -21344,7 +21440,7 @@
         <v>239</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C208" s="1" t="n">
         <f aca="false">0</f>
@@ -21380,7 +21476,7 @@
         <v>239</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C209" s="1" t="n">
         <f aca="false">0</f>
@@ -21416,7 +21512,7 @@
         <v>239</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C210" s="1" t="n">
         <f aca="false">0</f>
@@ -21452,7 +21548,7 @@
         <v>239</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C211" s="1" t="n">
         <f aca="false">0</f>
@@ -21488,7 +21584,7 @@
         <v>239</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C212" s="1" t="n">
         <f aca="false">0</f>
@@ -21524,7 +21620,7 @@
         <v>239</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C213" s="1" t="n">
         <f aca="false">0</f>
@@ -21560,7 +21656,7 @@
         <v>239</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C214" s="1" t="n">
         <f aca="false">0</f>
@@ -22049,21 +22145,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22071,7 +22167,7 @@
         <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2</f>
@@ -22083,7 +22179,7 @@
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3</f>
@@ -22095,7 +22191,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4</f>
@@ -22107,7 +22203,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5</f>
@@ -22119,7 +22215,7 @@
         <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6</f>
@@ -22131,7 +22227,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7</f>
@@ -22191,7 +22287,7 @@
         <v>232</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12</f>
@@ -22203,7 +22299,7 @@
         <v>232</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13</f>
@@ -22215,7 +22311,7 @@
         <v>232</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14</f>
@@ -22227,7 +22323,7 @@
         <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15</f>
@@ -22239,7 +22335,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16</f>
@@ -22251,7 +22347,7 @@
         <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17</f>
@@ -22263,7 +22359,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18</f>
@@ -22275,7 +22371,7 @@
         <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19</f>
@@ -22287,7 +22383,7 @@
         <v>224</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20</f>
@@ -22299,7 +22395,7 @@
         <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21</f>
@@ -22311,7 +22407,7 @@
         <v>224</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22</f>
@@ -22323,7 +22419,7 @@
         <v>224</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23</f>
@@ -22335,7 +22431,7 @@
         <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24</f>
@@ -22347,7 +22443,7 @@
         <v>224</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25</f>
@@ -22359,7 +22455,7 @@
         <v>224</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26</f>
@@ -22371,7 +22467,7 @@
         <v>224</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27</f>
@@ -22383,7 +22479,7 @@
         <v>224</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28</f>
@@ -22395,7 +22491,7 @@
         <v>224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29</f>
@@ -22407,7 +22503,7 @@
         <v>224</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30</f>
@@ -22419,7 +22515,7 @@
         <v>224</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31</f>
@@ -22431,7 +22527,7 @@
         <v>224</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32</f>
@@ -22443,7 +22539,7 @@
         <v>224</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33</f>
@@ -22455,7 +22551,7 @@
         <v>224</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34</f>
@@ -22467,7 +22563,7 @@
         <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35</f>
@@ -22491,7 +22587,7 @@
         <v>250</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37</f>
@@ -22503,7 +22599,7 @@
         <v>250</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38</f>
@@ -22515,7 +22611,7 @@
         <v>250</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39</f>
@@ -22527,7 +22623,7 @@
         <v>250</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40</f>
@@ -22539,7 +22635,7 @@
         <v>250</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41</f>
@@ -22551,7 +22647,7 @@
         <v>250</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42</f>
@@ -22563,7 +22659,7 @@
         <v>250</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">A43</f>
@@ -22575,7 +22671,7 @@
         <v>250</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">A44</f>
@@ -22587,7 +22683,7 @@
         <v>250</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">A45</f>
@@ -22599,7 +22695,7 @@
         <v>250</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">A46</f>
@@ -22611,7 +22707,7 @@
         <v>250</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">A47</f>
@@ -22623,7 +22719,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48</f>
@@ -22635,7 +22731,7 @@
         <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">A49</f>
@@ -22647,7 +22743,7 @@
         <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">A50</f>
@@ -22659,7 +22755,7 @@
         <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51</f>
@@ -22668,10 +22764,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52</f>
@@ -22680,10 +22776,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53</f>
@@ -22692,10 +22788,10 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54</f>
@@ -22707,7 +22803,7 @@
         <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55</f>
@@ -22719,7 +22815,7 @@
         <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56</f>
@@ -22731,7 +22827,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">A57</f>
@@ -22743,7 +22839,7 @@
         <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">A58</f>
@@ -22755,7 +22851,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">A59</f>
@@ -22767,7 +22863,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60</f>
@@ -22779,7 +22875,7 @@
         <v>90</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">A61</f>
@@ -22791,7 +22887,7 @@
         <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62</f>
@@ -22803,7 +22899,7 @@
         <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63</f>
@@ -22815,7 +22911,7 @@
         <v>90</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64</f>
@@ -22827,7 +22923,7 @@
         <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">A65</f>
@@ -22839,7 +22935,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">A66</f>
@@ -22851,7 +22947,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">A67</f>
@@ -22887,7 +22983,7 @@
         <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70</f>
@@ -22899,7 +22995,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71</f>
@@ -22911,7 +23007,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">A72</f>
@@ -22923,7 +23019,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">A73</f>
@@ -22935,7 +23031,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74</f>
@@ -22947,7 +23043,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75</f>
@@ -22959,7 +23055,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">A76</f>
@@ -22971,7 +23067,7 @@
         <v>70</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">A77</f>
@@ -22995,7 +23091,7 @@
         <v>253</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79</f>
@@ -23007,7 +23103,7 @@
         <v>253</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80</f>
@@ -23019,7 +23115,7 @@
         <v>253</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81</f>
@@ -23031,7 +23127,7 @@
         <v>253</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82</f>
@@ -23043,7 +23139,7 @@
         <v>225</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">A83</f>
@@ -23055,7 +23151,7 @@
         <v>225</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">A84</f>
@@ -23067,7 +23163,7 @@
         <v>239</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">A85</f>
@@ -23079,7 +23175,7 @@
         <v>239</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">A86</f>
@@ -23103,7 +23199,7 @@
         <v>239</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">A88</f>
@@ -23136,10 +23232,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23367,18 +23463,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>2011</v>
@@ -24121,17 +24217,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>2011</v>
@@ -24274,7 +24370,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="n">
@@ -24298,7 +24394,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="n">
@@ -24322,7 +24418,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
@@ -24354,7 +24450,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -24386,7 +24482,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
@@ -24418,7 +24514,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
@@ -24450,7 +24546,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
@@ -24482,7 +24578,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -24591,13 +24687,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2011</v>
@@ -24620,7 +24716,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">Historico!G2</f>
@@ -24649,7 +24745,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">Historico!G3</f>
@@ -24678,7 +24774,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">Historico!G4</f>
@@ -24707,7 +24803,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">Historico!G5</f>
@@ -24736,7 +24832,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">Historico!G6</f>
@@ -24765,7 +24861,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">Historico!G7</f>
@@ -24794,7 +24890,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">Historico!G8</f>
@@ -24823,7 +24919,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">Historico!G9</f>
@@ -24852,7 +24948,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="n">
         <f aca="false">Historico!G10</f>
@@ -24881,7 +24977,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">Historico!G11</f>
@@ -24910,7 +25006,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">Historico!G12</f>
@@ -24939,7 +25035,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="false">Historico!G13</f>
@@ -24968,7 +25064,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">Historico!G14</f>
@@ -24997,7 +25093,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">Historico!G15</f>
@@ -25026,7 +25122,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">Historico!G16</f>
@@ -25055,7 +25151,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">Historico!G17</f>
@@ -25084,7 +25180,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">Historico!G77</f>
@@ -25171,7 +25267,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">SUM(B2:B17)*1000/B19</f>
@@ -25200,7 +25296,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">((0.3*SUM(B14:B17)+0.5*SUM(B6:B9)+0.1*SUM(B10:B13)+0.09*SUM(B2:B5)+0.01*B18)/B19)*1000</f>
@@ -25313,14 +25409,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2011</v>
@@ -25343,7 +25439,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">Historico!G2</f>
@@ -25372,7 +25468,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">Historico!G3</f>
@@ -25401,7 +25497,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">Historico!G4</f>
@@ -25430,7 +25526,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">Historico!G5</f>
@@ -25459,7 +25555,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">Historico!G6</f>
@@ -25488,7 +25584,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">Historico!G7</f>
@@ -25517,7 +25613,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">Historico!G8</f>
@@ -25546,7 +25642,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">Historico!G9</f>
@@ -25575,7 +25671,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="n">
         <f aca="false">Historico!G10</f>
@@ -25604,7 +25700,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">Historico!G11</f>
@@ -25633,7 +25729,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">Historico!G12</f>
@@ -25662,7 +25758,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="false">Historico!G13</f>
@@ -25691,7 +25787,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">Historico!G14</f>
@@ -25720,7 +25816,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">Historico!G15</f>
@@ -25749,7 +25845,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">Historico!G16</f>
@@ -25778,7 +25874,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">Historico!G17</f>
@@ -25807,7 +25903,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">Historico!G77</f>
@@ -25865,7 +25961,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="false">SUM(B2:B17)*1000/B19</f>
@@ -25894,7 +25990,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">((0.3*SUM(B14:B17)+0.5*SUM(B6:B9)+0.1*SUM(B10:B13)+0.09*SUM(B2:B5)+0.01*B18)/B19)*1000</f>
@@ -25923,7 +26019,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B22" s="60" t="n">
         <f aca="false">Historico!G106</f>
@@ -25999,17 +26095,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>2011</v>
@@ -26032,7 +26128,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">Historico!G2</f>
@@ -26061,7 +26157,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">Historico!G3</f>
@@ -26090,7 +26186,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">Historico!G4</f>
@@ -26119,7 +26215,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">Historico!G5</f>
@@ -26148,7 +26244,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">Historico!G6</f>
@@ -26177,7 +26273,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">Historico!G7</f>
@@ -26206,7 +26302,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">Historico!G8</f>
@@ -26235,7 +26331,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">Historico!G9</f>
@@ -26264,7 +26360,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="n">
         <f aca="false">Historico!G10</f>
@@ -26293,7 +26389,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">Historico!G11</f>
@@ -26322,7 +26418,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">Historico!G12</f>
@@ -26351,7 +26447,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="false">Historico!G13</f>
@@ -26380,7 +26476,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">Historico!G14</f>
@@ -26409,7 +26505,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">Historico!G15</f>
@@ -26438,7 +26534,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">Historico!G16</f>
@@ -26467,7 +26563,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">Historico!G17</f>
@@ -26496,7 +26592,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">Historico!G77</f>
@@ -26583,7 +26679,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">SUM(B2:B17)*1000/B19</f>
@@ -26612,7 +26708,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">((0.3*SUM(B14:B17)+0.5*SUM(B6:B9)+0.1*SUM(B10:B13)+0.09*SUM(B2:B5)+0.01*B18)/B19)*1000</f>
@@ -26641,7 +26737,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B23" s="50" t="n">
         <f aca="false">Historico!G98</f>
@@ -26725,22 +26821,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="6" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="6" width="13.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="80.1836734693878"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36219,14 +36315,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="13" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="13" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="13" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="13" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="13" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="13" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="13" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="13" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36390,12 +36486,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="5" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36511,15 +36607,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40415,12 +40511,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40483,11 +40579,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40832,18 +40928,18 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
